--- a/database/FileExcel/Category.xlsx
+++ b/database/FileExcel/Category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE0DB9-780B-4316-B765-7AE29BD25218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DCEDB2-6E60-4638-B1F3-05CCFC7798E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="10120" yWindow="450" windowWidth="6670" windowHeight="10080" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -56,22 +56,34 @@
     <t>tees</t>
   </si>
   <si>
-    <t>Windbreaker</t>
-  </si>
-  <si>
-    <t>windbreaker</t>
-  </si>
-  <si>
-    <t>Varsity</t>
-  </si>
-  <si>
-    <t>varsity</t>
-  </si>
-  <si>
-    <t>Mesh</t>
-  </si>
-  <si>
-    <t>mesh</t>
+    <t>Kemeja</t>
+  </si>
+  <si>
+    <t>kemeja</t>
+  </si>
+  <si>
+    <t>Sleeve</t>
+  </si>
+  <si>
+    <t>sleeve</t>
+  </si>
+  <si>
+    <t>Topi</t>
+  </si>
+  <si>
+    <t>topi</t>
+  </si>
+  <si>
+    <t>Tas</t>
+  </si>
+  <si>
+    <t>tas</t>
+  </si>
+  <si>
+    <t>Aksesoris</t>
+  </si>
+  <si>
+    <t>aksesoris</t>
   </si>
 </sst>
 </file>
@@ -440,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -513,6 +525,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/FileExcel/Category.xlsx
+++ b/database/FileExcel/Category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DCEDB2-6E60-4638-B1F3-05CCFC7798E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E543F8E-8915-479E-B4D2-A86B29F86607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="450" windowWidth="6670" windowHeight="10080" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="8130" yWindow="600" windowWidth="6670" windowHeight="10080" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +83,9 @@
   </si>
   <si>
     <t>aksesoris</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -452,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,13 +473,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,11 +492,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="K2" s="2"/>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,9 +509,12 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -513,8 +524,11 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -524,8 +538,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -535,8 +552,11 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -545,6 +565,9 @@
       </c>
       <c r="C7" t="s">
         <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/database/FileExcel/Category.xlsx
+++ b/database/FileExcel/Category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E543F8E-8915-479E-B4D2-A86B29F86607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA590A-8DDD-4070-8969-3A5A8C33CA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="600" windowWidth="6670" windowHeight="10080" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="1750" yWindow="410" windowWidth="6670" windowHeight="10080" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>nama_category</t>
-  </si>
-  <si>
     <t>slug</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>nama_kategori</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -467,13 +467,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -504,10 +504,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -519,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -533,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -547,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/database/FileExcel/Category.xlsx
+++ b/database/FileExcel/Category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA590A-8DDD-4070-8969-3A5A8C33CA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C4CC7C-6E3D-48D1-8E9F-13747672919F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1750" yWindow="410" windowWidth="6670" windowHeight="10080" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -46,53 +46,59 @@
     <t>slug</t>
   </si>
   <si>
-    <t>Tees</t>
-  </si>
-  <si>
-    <t>tees</t>
-  </si>
-  <si>
-    <t>Kemeja</t>
-  </si>
-  <si>
-    <t>kemeja</t>
-  </si>
-  <si>
-    <t>Sleeve</t>
-  </si>
-  <si>
-    <t>sleeve</t>
-  </si>
-  <si>
-    <t>Topi</t>
-  </si>
-  <si>
-    <t>topi</t>
-  </si>
-  <si>
-    <t>Tas</t>
-  </si>
-  <si>
-    <t>tas</t>
-  </si>
-  <si>
-    <t>Aksesoris</t>
-  </si>
-  <si>
-    <t>aksesoris</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>nama_kategori</t>
+  </si>
+  <si>
+    <t>Kaos</t>
+  </si>
+  <si>
+    <t>kaos</t>
+  </si>
+  <si>
+    <t>Kaos Panjang</t>
+  </si>
+  <si>
+    <t>kaos-panjang</t>
+  </si>
+  <si>
+    <t>Jaket</t>
+  </si>
+  <si>
+    <t>Tas Selempang</t>
+  </si>
+  <si>
+    <t>tas-selempang</t>
+  </si>
+  <si>
+    <t>jaket</t>
+  </si>
+  <si>
+    <t>Kaos Kaki</t>
+  </si>
+  <si>
+    <t>kaos kaki</t>
+  </si>
+  <si>
+    <t>Celana Pendek</t>
+  </si>
+  <si>
+    <t>celana-pendek</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>jersey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +118,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,10 +147,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -467,13 +482,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -487,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -504,10 +519,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -519,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -533,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -547,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -561,14 +576,60 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/FileExcel/Category.xlsx
+++ b/database/FileExcel/Category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C4CC7C-6E3D-48D1-8E9F-13747672919F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65C328C-14D5-4A28-8F14-3D22E6A974CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="6570" yWindow="4540" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,6 @@
     <t>kaos</t>
   </si>
   <si>
-    <t>Kaos Panjang</t>
-  </si>
-  <si>
-    <t>kaos-panjang</t>
-  </si>
-  <si>
     <t>Jaket</t>
   </si>
   <si>
@@ -76,12 +70,6 @@
     <t>jaket</t>
   </si>
   <si>
-    <t>Kaos Kaki</t>
-  </si>
-  <si>
-    <t>kaos kaki</t>
-  </si>
-  <si>
     <t>Celana Pendek</t>
   </si>
   <si>
@@ -92,6 +80,18 @@
   </si>
   <si>
     <t>jersey</t>
+  </si>
+  <si>
+    <t>Lengen Panjang</t>
+  </si>
+  <si>
+    <t>lengen-panjang</t>
+  </si>
+  <si>
+    <t>Aksesoris</t>
+  </si>
+  <si>
+    <t>aksesoris</t>
   </si>
 </sst>
 </file>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -519,10 +519,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -548,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -562,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -590,10 +590,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>

--- a/database/FileExcel/Category.xlsx
+++ b/database/FileExcel/Category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65C328C-14D5-4A28-8F14-3D22E6A974CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821BDAA0-1472-4ADD-8EE1-945B1C853893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="4540" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="6570" yWindow="2990" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/database/FileExcel/Category.xlsx
+++ b/database/FileExcel/Category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821BDAA0-1472-4ADD-8EE1-945B1C853893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F5699A-A63B-4D7E-9B9B-64DB68828498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2990" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="430" yWindow="410" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>aksesoris</t>
+  </si>
+  <si>
+    <t>hpp</t>
   </si>
 </sst>
 </file>
@@ -469,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,16 +491,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -508,13 +514,16 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="L2" s="2"/>
+        <v>68000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -525,11 +534,14 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
+        <v>75000</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -540,10 +552,13 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>180000</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -554,10 +569,13 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>80000</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -568,10 +586,13 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>50000</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -582,10 +603,13 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>75000</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -596,40 +620,43 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="E12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
+        <v>75000</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="H16" s="3"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
